--- a/config_4.27/shoping_config.xlsx
+++ b/config_4.27/shoping_config.xlsx
@@ -5642,7 +5642,7 @@
     <t>"5000万金币","100万小游戏币","抽奖券*50",</t>
   </si>
   <si>
-    <t>"jing_bi","prop_tiny_game_coin","prop_mfcjq",</t>
+    <t>"jing_bi","prop_tiny_game_coin","prop_qdlb_cjq",</t>
   </si>
   <si>
     <t>50000000,1000000,50,</t>
@@ -13523,11 +13523,11 @@
   <dimension ref="A1:AN616"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H599" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="R593" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A619" sqref="A619"/>
+      <selection pane="bottomRight" activeCell="T615" sqref="T615"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>

--- a/config_4.27/shoping_config.xlsx
+++ b/config_4.27/shoping_config.xlsx
@@ -13523,11 +13523,11 @@
   <dimension ref="A1:AN616"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="R593" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="P593" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="T615" sqref="T615"/>
+      <selection pane="bottomRight" activeCell="G612" sqref="G612"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
